--- a/Sheet3输出数据.xlsx
+++ b/Sheet3输出数据.xlsx
@@ -1091,7 +1091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="n">
-        <v>1.090499559853764</v>
+        <v>1.171210159045786</v>
       </c>
     </row>
     <row r="3">
@@ -1127,10 +1127,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C3" t="n">
-        <v>0.753831269718425</v>
+        <v>-0.7461016087405195</v>
       </c>
     </row>
     <row r="4">
@@ -1138,10 +1138,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03528123080084751</v>
+        <v>-0.2750060881923498</v>
       </c>
     </row>
     <row r="5">
@@ -1149,10 +1149,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4682072436462882</v>
+        <v>-0.3781472336807087</v>
       </c>
     </row>
     <row r="6">
@@ -1160,10 +1160,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C6" t="n">
-        <v>1.055546911375633</v>
+        <v>0.04626154541655216</v>
       </c>
     </row>
     <row r="7">
@@ -1171,10 +1171,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.006848112339016061</v>
+        <v>0.3249469851037759</v>
       </c>
     </row>
     <row r="8">
@@ -1182,10 +1182,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1851546053726706</v>
+        <v>-0.4197125572583819</v>
       </c>
     </row>
     <row r="9">
@@ -1193,10 +1193,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.02444057952991349</v>
+        <v>1.780070880312262</v>
       </c>
     </row>
     <row r="10">
@@ -1204,10 +1204,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2584574483966937</v>
+        <v>-3.317997709141052</v>
       </c>
     </row>
     <row r="11">
@@ -1215,10 +1215,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.8595394474088682</v>
+        <v>-5.400887438716208</v>
       </c>
     </row>
     <row r="12">
@@ -1226,10 +1226,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1082542030308311</v>
+        <v>-1.698458548344269</v>
       </c>
     </row>
     <row r="13">
@@ -1237,10 +1237,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08180827723951506</v>
+        <v>1.779506673765108</v>
       </c>
     </row>
     <row r="14">
@@ -1248,10 +1248,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1569483840084946</v>
+        <v>0.2882270640802798</v>
       </c>
     </row>
     <row r="15">
@@ -1259,10 +1259,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1656965782378002</v>
+        <v>-0.4564254765352954</v>
       </c>
     </row>
     <row r="16">
@@ -1270,10 +1270,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.5299749983771826</v>
+        <v>-1.828757995370328</v>
       </c>
     </row>
     <row r="17">
@@ -1281,10 +1281,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9818491039221278</v>
+        <v>0.34238563776428</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1292,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4366483123494334</v>
+        <v>-3.864355591593508</v>
       </c>
     </row>
     <row r="19">
@@ -1303,10 +1303,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>1.53124624798076</v>
+        <v>1.278978909317221</v>
       </c>
     </row>
     <row r="20">
@@ -1314,10 +1314,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1521601075230758</v>
+        <v>-1.208902067253435</v>
       </c>
     </row>
     <row r="21">
@@ -1325,10 +1325,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>2.114930777875302</v>
+        <v>2.359201045973602</v>
       </c>
     </row>
     <row r="22">
@@ -1336,10 +1336,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3963154625001222</v>
+        <v>-1.535594002827417</v>
       </c>
     </row>
     <row r="23">
@@ -1347,10 +1347,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3161932515025475</v>
+        <v>1.957473570122342</v>
       </c>
     </row>
     <row r="24">
@@ -1358,10 +1358,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.470889075856186</v>
+        <v>-0.2940981499334583</v>
       </c>
     </row>
     <row r="25">
@@ -1369,10 +1369,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02116558386452854</v>
+        <v>0.2258421734003254</v>
       </c>
     </row>
     <row r="26">
@@ -1380,10 +1380,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0281482680402292</v>
+        <v>0.3830362640211222</v>
       </c>
     </row>
     <row r="27">
@@ -1391,10 +1391,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1388311981421562</v>
+        <v>0.4613203943165949</v>
       </c>
     </row>
     <row r="28">
@@ -1402,10 +1402,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1834098991636811</v>
+        <v>-0.01398032146623094</v>
       </c>
     </row>
     <row r="29">
@@ -1413,10 +1413,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1833665027589435</v>
+        <v>0.4430451326258046</v>
       </c>
     </row>
     <row r="30">
@@ -1424,10 +1424,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1400749230725576</v>
+        <v>0.3496561155396091</v>
       </c>
     </row>
     <row r="31">
@@ -1435,10 +1435,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06749442107432418</v>
+        <v>0.2267943446705125</v>
       </c>
     </row>
     <row r="32">
@@ -1446,10 +1446,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.261489652556852</v>
+        <v>-0.5329566708165845</v>
       </c>
     </row>
     <row r="33">
@@ -1457,10 +1457,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3212330776928301</v>
+        <v>1.61289824204923</v>
       </c>
     </row>
     <row r="34">
@@ -1468,10 +1468,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6209444054624924</v>
+        <v>-0.5268492289010605</v>
       </c>
     </row>
     <row r="35">
@@ -1479,10 +1479,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04639861035243555</v>
+        <v>0.2819663626829875</v>
       </c>
     </row>
     <row r="36">
@@ -1490,10 +1490,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.04447177303390034</v>
+        <v>0.1206222785813343</v>
       </c>
     </row>
     <row r="37">
@@ -1501,10 +1501,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1930113382573893</v>
+        <v>1.479148065310815</v>
       </c>
     </row>
     <row r="38">
@@ -1512,10 +1512,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0959537550739348</v>
+        <v>0.03055720795683714</v>
       </c>
     </row>
     <row r="39">
@@ -1523,10 +1523,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1646686395017357</v>
+        <v>2.116766443639861</v>
       </c>
     </row>
     <row r="40">
@@ -1534,10 +1534,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1846041123613682</v>
+        <v>0.01158843541381336</v>
       </c>
     </row>
     <row r="41">
@@ -1545,10 +1545,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09641276838468892</v>
+        <v>0.5085519895772219</v>
       </c>
     </row>
     <row r="42">
@@ -1556,10 +1556,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.7129717647716016</v>
+        <v>-0.1402993849698645</v>
       </c>
     </row>
     <row r="43">
@@ -1567,10 +1567,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C43" t="n">
-        <v>0.003889581168523162</v>
+        <v>-0.08726687204993815</v>
       </c>
     </row>
     <row r="44">
@@ -1578,21 +1578,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.178729488414702</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.09765615271679637</v>
+        <v>-0.8547696134917906</v>
       </c>
     </row>
   </sheetData>
@@ -1606,7 +1595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1644,10 +1633,10 @@
         <v>2021</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1525957540271211</v>
+        <v>-0.5039101279174139</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8798010039860108</v>
+        <v>-0.2946799430179564</v>
       </c>
     </row>
     <row r="3">
@@ -1658,10 +1647,10 @@
         <v>2020</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1519341432696469</v>
+        <v>2.926530078158776</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8808342656709617</v>
+        <v>2.070436419234505</v>
       </c>
     </row>
     <row r="4">
@@ -1672,10 +1661,10 @@
         <v>2019</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1524004916230389</v>
+        <v>0.5085220221517253</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8801062488405254</v>
+        <v>0.7687954674242234</v>
       </c>
     </row>
     <row r="5">
@@ -1686,10 +1675,10 @@
         <v>2018</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1525058393805678</v>
+        <v>-0.03770425812612636</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8799415943685102</v>
+        <v>0.2889777000080766</v>
       </c>
     </row>
     <row r="6">
@@ -1700,10 +1689,10 @@
         <v>2017</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1523964655940888</v>
+        <v>0.5293969118438725</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8801125399328307</v>
+        <v>0.7846603129212892</v>
       </c>
     </row>
     <row r="7">
@@ -1711,13 +1700,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>6.557438405115952</v>
+        <v>-0.4899935347893157</v>
       </c>
       <c r="D7" t="n">
-        <v>2.75559884048381</v>
+        <v>-0.2729418075063597</v>
       </c>
     </row>
     <row r="8">
@@ -1725,13 +1714,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1525930700078209</v>
+        <v>2.352470611624728</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8798052014780258</v>
+        <v>1.825336894165619</v>
       </c>
     </row>
     <row r="9">
@@ -1739,13 +1728,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.152044859065776</v>
+        <v>-0.5421807590196837</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8806615550714966</v>
+        <v>-0.3565541805768045</v>
       </c>
     </row>
     <row r="10">
@@ -1753,13 +1742,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1526031350801963</v>
+        <v>1.698390734604116</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8797894606404074</v>
+        <v>1.509362097740828</v>
       </c>
     </row>
     <row r="11">
@@ -1767,13 +1756,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1521710079728806</v>
+        <v>3.274444906361229</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8804646726561119</v>
+        <v>2.207570259658334</v>
       </c>
     </row>
     <row r="12">
@@ -1781,13 +1770,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1518670427871445</v>
+        <v>1.955847707473931</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8809389000669647</v>
+        <v>1.639217903559183</v>
       </c>
     </row>
     <row r="13">
@@ -1795,13 +1784,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1521213536158288</v>
+        <v>-0.5421807590196837</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8805421812650112</v>
+        <v>-0.3565541805768045</v>
       </c>
     </row>
     <row r="14">
@@ -1809,13 +1798,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1526031350801963</v>
+        <v>-0.4621603485331194</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8797894606404074</v>
+        <v>-0.2305837057748382</v>
       </c>
     </row>
     <row r="15">
@@ -1823,13 +1812,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1525877019692208</v>
+        <v>-0.524785017609561</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8798135963209364</v>
+        <v>-0.3280339587281016</v>
       </c>
     </row>
     <row r="16">
@@ -1837,13 +1826,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1525997800560712</v>
+        <v>0.3450020528965723</v>
       </c>
       <c r="D16" t="n">
-        <v>0.879794707659785</v>
+        <v>0.6392159110935454</v>
       </c>
     </row>
     <row r="17">
@@ -1851,13 +1840,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1524320288498151</v>
+        <v>-0.5213058693275364</v>
       </c>
       <c r="D17" t="n">
-        <v>0.880056964962677</v>
+        <v>-0.322410567320193</v>
       </c>
     </row>
     <row r="18">
@@ -1865,13 +1854,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1525991090512462</v>
+        <v>1.350475906401662</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8797957570548395</v>
+        <v>1.320128369982042</v>
       </c>
     </row>
     <row r="19">
@@ -1879,13 +1868,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.152238108455383</v>
+        <v>-0.5421807590196837</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8803599058253513</v>
+        <v>-0.3565541805768045</v>
       </c>
     </row>
     <row r="20">
@@ -1893,13 +1882,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1526031350801963</v>
+        <v>0.7242292156372463</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8797894606404074</v>
+        <v>0.9262807358213065</v>
       </c>
     </row>
     <row r="21">
@@ -1907,13 +1896,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1523588893238874</v>
+        <v>-0.5143475727634874</v>
       </c>
       <c r="D21" t="n">
-        <v>0.880171251701532</v>
+        <v>-0.3112419404914622</v>
       </c>
     </row>
     <row r="22">
@@ -1921,13 +1910,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1525977670415961</v>
+        <v>0.3589186460246703</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8797978558361285</v>
+        <v>0.6506348492552545</v>
       </c>
     </row>
     <row r="23">
@@ -1935,13 +1924,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.152429344830515</v>
+        <v>-0.5421807590196837</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8800611595876467</v>
+        <v>-0.3565541805768045</v>
       </c>
     </row>
     <row r="24">
@@ -1949,13 +1938,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1526031350801963</v>
+        <v>-0.53174331417361</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8797894606404074</v>
+        <v>-0.3393604359206768</v>
       </c>
     </row>
     <row r="25">
@@ -1963,13 +1952,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1526011220657212</v>
+        <v>-0.4482437554050213</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8797926088608548</v>
+        <v>-0.2099327566565721</v>
       </c>
     </row>
     <row r="26">
@@ -1977,13 +1966,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1525850179499207</v>
+        <v>-0.5421807590196837</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8798177936718344</v>
+        <v>-0.3565541805768045</v>
       </c>
     </row>
     <row r="27">
@@ -1991,13 +1980,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1526031350801963</v>
+        <v>-0.5421807590196837</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8797894606404074</v>
+        <v>-0.3565541805768045</v>
       </c>
     </row>
     <row r="28">
@@ -2005,13 +1994,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1526031350801963</v>
+        <v>-0.5282641658915855</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8797894606404074</v>
+        <v>-0.3336838104349418</v>
       </c>
     </row>
     <row r="29">
@@ -2019,13 +2008,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.1526004510608962</v>
+        <v>-0.5421807590196837</v>
       </c>
       <c r="D29" t="n">
-        <v>0.87979365826179</v>
+        <v>-0.3565541805768045</v>
       </c>
     </row>
     <row r="30">
@@ -2033,13 +2022,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1526031350801963</v>
+        <v>-0.5387016107376591</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8797894606404074</v>
+        <v>-0.3507952922306362</v>
       </c>
     </row>
     <row r="31">
@@ -2047,13 +2036,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1526024640753713</v>
+        <v>-0.5421807590196837</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8797905100501635</v>
+        <v>-0.3565541805768045</v>
       </c>
     </row>
     <row r="32">
@@ -2061,13 +2050,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1526031350801963</v>
+        <v>-0.5421807590196837</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8797894606404074</v>
+        <v>-0.3565541805768045</v>
       </c>
     </row>
     <row r="33">
@@ -2075,13 +2064,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1526031350801963</v>
+        <v>-0.3403901586622607</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8797894606404074</v>
+        <v>-0.06026303129312743</v>
       </c>
     </row>
     <row r="34">
@@ -2089,13 +2078,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1525642168003449</v>
+        <v>-0.3229944172521381</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8798503215465719</v>
+        <v>-0.03764328667334277</v>
       </c>
     </row>
     <row r="35">
@@ -2103,13 +2092,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1525608617762198</v>
+        <v>-0.5387016107376591</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8798555677134435</v>
+        <v>-0.3507952922306362</v>
       </c>
     </row>
     <row r="36">
@@ -2117,13 +2106,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1526024640753713</v>
+        <v>-0.5213058693275364</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8797905100501635</v>
+        <v>-0.322410567320193</v>
       </c>
     </row>
     <row r="37">
@@ -2131,13 +2120,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1525991090512462</v>
+        <v>-0.5352224624556347</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8797957570548395</v>
+        <v>-0.3450641546500147</v>
       </c>
     </row>
     <row r="38">
@@ -2145,13 +2134,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1526017930705462</v>
+        <v>-0.5421807590196837</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8797915594569793</v>
+        <v>-0.3565541805768045</v>
       </c>
     </row>
     <row r="39">
@@ -2159,13 +2148,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1526031350801963</v>
+        <v>-0.53174331417361</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8797894606404074</v>
+        <v>-0.3393604359206768</v>
       </c>
     </row>
     <row r="40">
@@ -2173,13 +2162,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1526011220657212</v>
+        <v>-0.5421807590196837</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8797926088608548</v>
+        <v>-0.3565541805768045</v>
       </c>
     </row>
     <row r="41">
@@ -2187,13 +2176,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1526031350801963</v>
+        <v>-0.5421807590196837</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8797894606404074</v>
+        <v>-0.3565541805768045</v>
       </c>
     </row>
     <row r="42">
@@ -2201,13 +2190,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1526031350801963</v>
+        <v>-0.5421807590196837</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8797894606404074</v>
+        <v>-0.3565541805768045</v>
       </c>
     </row>
     <row r="43">
@@ -2215,13 +2204,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1526031350801963</v>
+        <v>-0.5421807590196837</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8797894606404074</v>
+        <v>-0.3565541805768045</v>
       </c>
     </row>
     <row r="44">
@@ -2229,27 +2218,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1526031350801963</v>
+        <v>-0.5421807590196837</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8797894606404074</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-0.1526031350801963</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.8797894606404074</v>
+        <v>-0.3565541805768045</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2958,10 +2933,10 @@
         <v>2021</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1526314127005223</v>
+        <v>-0.4541909408621111</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8797451580414178</v>
+        <v>-0.4235726649707345</v>
       </c>
     </row>
     <row r="3">
@@ -2972,10 +2947,10 @@
         <v>2020</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.152839432640017</v>
+        <v>-1.165381501380371</v>
       </c>
       <c r="D3" t="n">
-        <v>0.879419647513174</v>
+        <v>-1.183696872537514</v>
       </c>
     </row>
     <row r="4">
@@ -2986,10 +2961,10 @@
         <v>2019</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1527112655160058</v>
+        <v>-0.7271963495771848</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8796202374613424</v>
+        <v>-0.709902053402466</v>
       </c>
     </row>
     <row r="5">
@@ -3000,10 +2975,10 @@
         <v>2018</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1524354713381595</v>
+        <v>0.2157046838841201</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8800515094191006</v>
+        <v>0.2528048529650668</v>
       </c>
     </row>
     <row r="6">
@@ -3014,10 +2989,10 @@
         <v>2017</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1528756683714129</v>
+        <v>-1.289266308696454</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8793629167252731</v>
+        <v>-1.321025554577862</v>
       </c>
     </row>
     <row r="7">
@@ -3025,13 +3000,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>6.557438250171107</v>
+        <v>1.000308463552652</v>
       </c>
       <c r="D7" t="n">
-        <v>2.755598804814348</v>
+        <v>1.002625992685655</v>
       </c>
     </row>
     <row r="8">
@@ -3039,13 +3014,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1522059783726524</v>
+        <v>-0.2087154893283893</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8804100000204395</v>
+        <v>-0.1715481410619972</v>
       </c>
     </row>
     <row r="9">
@@ -3053,13 +3028,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1525596122697934</v>
+        <v>2.305687266568424</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8798574460223706</v>
+        <v>2.164108951434578</v>
       </c>
     </row>
     <row r="10">
@@ -3067,13 +3042,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.15182416112887</v>
+        <v>-1.190617295463277</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8810056775537913</v>
+        <v>-1.211546340628797</v>
       </c>
     </row>
     <row r="11">
@@ -3081,13 +3056,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1528468139927088</v>
+        <v>-1.252559699121318</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8794080919388325</v>
+        <v>-1.280174282177889</v>
       </c>
     </row>
     <row r="12">
@@ -3095,13 +3070,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1528649318584067</v>
+        <v>-1.26861884081044</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8793797267439474</v>
+        <v>-1.298029869929653</v>
       </c>
     </row>
     <row r="13">
@@ -3109,13 +3084,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1528696290828469</v>
+        <v>1.915679539832604</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8793723724536637</v>
+        <v>1.82731019797713</v>
       </c>
     </row>
     <row r="14">
@@ -3123,13 +3098,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1519382365795607</v>
+        <v>-0.05730072483095341</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8808278062068455</v>
+        <v>-0.01854434029083764</v>
       </c>
     </row>
     <row r="15">
@@ -3137,13 +3112,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1525153241536429</v>
+        <v>-1.218147252644628</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8799266909859781</v>
+        <v>-1.242000063361687</v>
       </c>
     </row>
     <row r="16">
@@ -3151,13 +3126,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1528548663774634</v>
+        <v>-1.28008965630267</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8793954854508997</v>
+        <v>-1.310799891802588</v>
       </c>
     </row>
     <row r="17">
@@ -3165,13 +3140,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1528729842431613</v>
+        <v>-1.213558926447736</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8793671193007132</v>
+        <v>-1.23691917129824</v>
       </c>
     </row>
     <row r="18">
@@ -3179,13 +3154,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1528535243133377</v>
+        <v>-1.275501330105778</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8793975865617039</v>
+        <v>-1.305690277192276</v>
       </c>
     </row>
     <row r="19">
@@ -3193,13 +3168,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1528716421790356</v>
+        <v>-1.091968282230098</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8793692205707399</v>
+        <v>-1.103038210109172</v>
       </c>
     </row>
     <row r="20">
@@ -3207,13 +3182,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1528179596140047</v>
+        <v>-1.284677982499562</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8794532617014328</v>
+        <v>-1.315911650181114</v>
       </c>
     </row>
     <row r="21">
@@ -3221,13 +3196,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1528743263072871</v>
+        <v>-0.9634951487171226</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8793650180188911</v>
+        <v>-0.9631461548154867</v>
       </c>
     </row>
     <row r="22">
@@ -3235,13 +3210,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1527803818184831</v>
+        <v>-1.22273557884152</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8795120792694692</v>
+        <v>-1.247083069184139</v>
       </c>
     </row>
     <row r="23">
@@ -3249,13 +3224,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1528562084415892</v>
+        <v>1.271019709169279</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8793933843283022</v>
+        <v>1.251799433910726</v>
       </c>
     </row>
     <row r="24">
@@ -3263,13 +3238,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1521267965892318</v>
+        <v>1.020955931438666</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8805336102414881</v>
+        <v>1.021795009542444</v>
       </c>
     </row>
     <row r="25">
@@ -3277,13 +3252,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1521999390840864</v>
+        <v>0.6148890630137239</v>
       </c>
       <c r="D25" t="n">
-        <v>0.880419429354616</v>
+        <v>0.6396310382526522</v>
       </c>
     </row>
     <row r="26">
@@ -3291,13 +3266,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1523187117592173</v>
+        <v>0.8993652872210277</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8802339422267267</v>
+        <v>0.9085118654823532</v>
       </c>
     </row>
     <row r="27">
@@ -3305,13 +3280,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1522355037834194</v>
+        <v>0.31894202331419</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8803638976385483</v>
+        <v>0.3539508509545328</v>
       </c>
     </row>
     <row r="28">
@@ -3319,13 +3294,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1524052748953296</v>
+        <v>0.3281186757079742</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8800986988333394</v>
+        <v>0.3629036394467988</v>
       </c>
     </row>
     <row r="29">
@@ -3333,13 +3308,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.152402590767078</v>
+        <v>0.02758330981154841</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8801028931603301</v>
+        <v>0.06643831092230455</v>
       </c>
     </row>
     <row r="30">
@@ -3347,13 +3322,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1524904959673161</v>
+        <v>1.193018163822115</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8799655045337548</v>
+        <v>1.180477220934613</v>
       </c>
     </row>
     <row r="31">
@@ -3361,13 +3336,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1521496116793699</v>
+        <v>0.05281910389445442</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8804979979169227</v>
+        <v>0.09159552460989316</v>
       </c>
     </row>
     <row r="32">
@@ -3375,13 +3350,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1524831146146244</v>
+        <v>0.2799412506406083</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8799770429211636</v>
+        <v>0.3158326246004286</v>
       </c>
     </row>
     <row r="33">
@@ -3389,13 +3364,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1524166824403987</v>
+        <v>1.172370695936101</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8800808724198053</v>
+        <v>1.161534276890837</v>
       </c>
     </row>
     <row r="34">
@@ -3403,13 +3378,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1521556509679359</v>
+        <v>-0.1444789225719014</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8804885705588439</v>
+        <v>-0.1064137578027236</v>
       </c>
     </row>
     <row r="35">
@@ -3417,13 +3392,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1525408233720326</v>
+        <v>0.5047692342883161</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8798868242369237</v>
+        <v>0.5340582044961337</v>
       </c>
     </row>
     <row r="36">
@@ -3431,13 +3406,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1523509212982358</v>
+        <v>0.465768461614734</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8801836248054788</v>
+        <v>0.4964631352087459</v>
       </c>
     </row>
     <row r="37">
@@ -3445,13 +3420,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1523623288433049</v>
+        <v>0.9475427122883936</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8801658024318452</v>
+        <v>0.9535129518017591</v>
       </c>
     </row>
     <row r="38">
@@ -3459,13 +3434,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1522214121100987</v>
+        <v>0.4061202210551382</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8803859017554088</v>
+        <v>0.4387550319445666</v>
       </c>
     </row>
     <row r="39">
@@ -3473,13 +3448,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1523797756769399</v>
+        <v>1.706910697874019</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8801385430442499</v>
+        <v>1.643582735648277</v>
       </c>
     </row>
     <row r="40">
@@ -3487,13 +3462,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1519993004972834</v>
+        <v>0.5300050283712219</v>
       </c>
       <c r="D40" t="n">
-        <v>0.880732558047888</v>
+        <v>0.558327076144618</v>
       </c>
     </row>
     <row r="41">
@@ -3501,13 +3476,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1523435399455441</v>
+        <v>0.6905964452624418</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8801951564779317</v>
+        <v>0.7117239298408933</v>
       </c>
     </row>
     <row r="42">
@@ -3515,13 +3490,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.152296567701142</v>
+        <v>0.4336501782364899</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8802685315352772</v>
+        <v>0.4654211998864994</v>
       </c>
     </row>
     <row r="43">
@@ -3529,13 +3504,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1523717232921853</v>
+        <v>-0.8419045044994847</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8801511245464735</v>
+        <v>-0.8321913959893017</v>
       </c>
     </row>
     <row r="44">
@@ -3543,27 +3518,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1527448171191501</v>
+        <v>-0.1513614118672394</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8795677373867471</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-0.1525428364682213</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.879883676681286</v>
+        <v>-0.113376577028113</v>
       </c>
     </row>
   </sheetData>
@@ -3577,7 +3538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3612,13 +3573,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="n">
-        <v>6.557438307081324</v>
+        <v>0.8093517227832998</v>
       </c>
       <c r="D2" t="n">
-        <v>2.755598817916117</v>
+        <v>0.9416287537807289</v>
       </c>
     </row>
     <row r="3">
@@ -3626,13 +3587,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1522878345531264</v>
+        <v>1.811871440422241</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8802821996878092</v>
+        <v>1.572753099774084</v>
       </c>
     </row>
     <row r="4">
@@ -3640,13 +3601,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1520268087174858</v>
+        <v>-0.8915814742390674</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8806896702696468</v>
+        <v>-0.9988426096361958</v>
       </c>
     </row>
     <row r="5">
@@ -3654,13 +3615,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1527307061508713</v>
+        <v>2.721612983678143</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8795898462336178</v>
+        <v>2.035442871605762</v>
       </c>
     </row>
     <row r="6">
@@ -3668,13 +3629,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1517899395144495</v>
+        <v>-0.8915814742390674</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8810590486767713</v>
+        <v>-0.9988426096361958</v>
       </c>
     </row>
     <row r="7">
@@ -3682,13 +3643,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1527307061508713</v>
+        <v>-0.8761184451752276</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8795898462336178</v>
+        <v>-0.9650772900350362</v>
       </c>
     </row>
     <row r="8">
@@ -3696,13 +3657,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1527266800454373</v>
+        <v>-0.8915814742390674</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8795961461237805</v>
+        <v>-0.9988426096361958</v>
       </c>
     </row>
     <row r="9">
@@ -3710,13 +3671,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1527307061508713</v>
+        <v>-0.8374608725156284</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8795898462336178</v>
+        <v>-0.8842690737445216</v>
       </c>
     </row>
     <row r="10">
@@ -3724,13 +3685,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1527166147818521</v>
+        <v>-0.4019188872174769</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8796118953854803</v>
+        <v>-0.1930426484105776</v>
       </c>
     </row>
     <row r="11">
@@ -3738,13 +3699,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1526032128121265</v>
+        <v>1.126343818592014</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8797892913116588</v>
+        <v>1.15964665226608</v>
       </c>
     </row>
     <row r="12">
@@ -3752,13 +3713,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1522052993917285</v>
+        <v>0.7835800076769003</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8804110878878549</v>
+        <v>0.9229588398665241</v>
       </c>
     </row>
     <row r="13">
@@ -3766,13 +3727,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1522945447288498</v>
+        <v>-0.5565491778558739</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8802717190239009</v>
+        <v>-0.4047497480619723</v>
       </c>
     </row>
     <row r="14">
@@ -3780,13 +3741,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.152643473866467</v>
+        <v>0.4820509409320261</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8797263201298415</v>
+        <v>0.6919740661687273</v>
       </c>
     </row>
     <row r="15">
@@ -3794,13 +3755,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1523730537848137</v>
+        <v>0.3995814525915478</v>
       </c>
       <c r="D15" t="n">
-        <v>0.880149073474969</v>
+        <v>0.6242559576906526</v>
       </c>
     </row>
     <row r="16">
@@ -3808,13 +3769,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1523945263471286</v>
+        <v>-0.8786956166858677</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8801155224014016</v>
+        <v>-0.9706443857664995</v>
       </c>
     </row>
     <row r="17">
@@ -3822,13 +3783,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1527273510630096</v>
+        <v>3.525690494997808</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8795950961494475</v>
+        <v>2.388926169532705</v>
       </c>
     </row>
     <row r="18">
@@ -3836,13 +3797,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1515805820318792</v>
+        <v>-0.703447953962351</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8813852222781956</v>
+        <v>-0.6359891231630839</v>
       </c>
     </row>
     <row r="19">
@@ -3850,13 +3811,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1526817218680904</v>
+        <v>1.458798943464567</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8796664876981708</v>
+        <v>1.368604692635406</v>
       </c>
     </row>
     <row r="20">
@@ -3864,13 +3825,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1521187381248965</v>
+        <v>-0.8451923870475484</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8805462157218241</v>
+        <v>-0.9000435377113896</v>
       </c>
     </row>
     <row r="21">
@@ -3878,13 +3839,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1527186278345692</v>
+        <v>0.595446487400184</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8796087455861333</v>
+        <v>0.7817214047043428</v>
       </c>
     </row>
     <row r="22">
@@ -3892,13 +3853,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1523435290116306</v>
+        <v>-0.8374608725156284</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8801952012966391</v>
+        <v>-0.8842690737445216</v>
       </c>
     </row>
     <row r="23">
@@ -3906,13 +3867,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1527166147818521</v>
+        <v>0.1418643015275527</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8796118953854803</v>
+        <v>0.3971737732249079</v>
       </c>
     </row>
     <row r="24">
@@ -3920,13 +3881,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1524616281043626</v>
+        <v>-0.7369511836006704</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8800106559287451</v>
+        <v>-0.6941146350175871</v>
       </c>
     </row>
     <row r="25">
@@ -3934,13 +3895,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1526904450965308</v>
+        <v>-0.05400073328108356</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8796528403661238</v>
+        <v>0.2054688720199807</v>
       </c>
     </row>
     <row r="26">
@@ -3948,13 +3909,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1525126254398605</v>
+        <v>-0.8065348143879491</v>
       </c>
       <c r="D26" t="n">
-        <v>0.879930937774007</v>
+        <v>-0.822943895159429</v>
       </c>
     </row>
     <row r="27">
@@ -3962,13 +3923,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1527085625709841</v>
+        <v>0.2475283334637907</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8796244943179216</v>
+        <v>0.4933483290215939</v>
       </c>
     </row>
     <row r="28">
@@ -3976,13 +3937,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1524341163838966</v>
+        <v>-0.6647903813027518</v>
       </c>
       <c r="D28" t="n">
-        <v>0.880053654732576</v>
+        <v>-0.571650866246167</v>
       </c>
     </row>
     <row r="29">
@@ -3990,13 +3951,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.1526716566045053</v>
+        <v>0.1676360166339522</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8796822340017679</v>
+        <v>0.4210588127759898</v>
       </c>
     </row>
     <row r="30">
@@ -4004,13 +3965,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1524549179286392</v>
+        <v>-0.7189109830261907</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8800211438969153</v>
+        <v>-0.6625288528191995</v>
       </c>
     </row>
     <row r="31">
@@ -4018,13 +3979,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1526857479735245</v>
+        <v>-0.6570588667708319</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8796601889913365</v>
+        <v>-0.5591085684986028</v>
       </c>
     </row>
     <row r="32">
@@ -4032,13 +3993,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1526696435517883</v>
+        <v>-0.5230459482175545</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8796853831830365</v>
+        <v>-0.356492443748986</v>
       </c>
     </row>
     <row r="33">
@@ -4046,13 +4007,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1526347506380266</v>
+        <v>0.6547214321449027</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8797399647844302</v>
+        <v>0.8272009884387852</v>
       </c>
     </row>
     <row r="34">
@@ -4060,13 +4021,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1523280956074668</v>
+        <v>-0.6493273522389121</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8802193113074679</v>
+        <v>-0.5466694857983325</v>
       </c>
     </row>
     <row r="35">
@@ -4074,13 +4035,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1526676304990713</v>
+        <v>0.3042261066978695</v>
       </c>
       <c r="D35" t="n">
-        <v>0.879688532337823</v>
+        <v>0.5431353260286469</v>
       </c>
     </row>
     <row r="36">
@@ -4088,13 +4049,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1524193539973052</v>
+        <v>-0.5513948348345939</v>
       </c>
       <c r="D36" t="n">
-        <v>0.880076725227239</v>
+        <v>-0.397230033955435</v>
       </c>
     </row>
     <row r="37">
@@ -4102,13 +4063,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1526421318313223</v>
+        <v>0.337729336336189</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8797284193398278</v>
+        <v>0.5719988791073678</v>
       </c>
     </row>
     <row r="38">
@@ -4116,13 +4077,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1524106307688647</v>
+        <v>-0.8555010730901081</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8800903571245855</v>
+        <v>-0.9213692003121314</v>
       </c>
     </row>
     <row r="39">
@@ -4130,13 +4091,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1527213119048585</v>
+        <v>0.04650895563387446</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8796045458124545</v>
+        <v>0.3062039050602257</v>
       </c>
     </row>
     <row r="40">
@@ -4144,13 +4105,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1524864557545392</v>
+        <v>-0.7962261283453893</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8799718478934173</v>
+        <v>-0.8030962221052838</v>
       </c>
     </row>
     <row r="41">
@@ -4158,13 +4119,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1527058785006947</v>
+        <v>0.9433646413365773</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8796286938678692</v>
+        <v>1.036316497714749</v>
       </c>
     </row>
     <row r="42">
@@ -4172,13 +4133,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1522529416393646</v>
+        <v>-0.7472598696432302</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8803366944161731</v>
+        <v>-0.7124782772429989</v>
       </c>
     </row>
     <row r="43">
@@ -4186,13 +4147,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1526931291668202</v>
+        <v>0.2913402491446698</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8796486410869686</v>
+        <v>0.5319256753735206</v>
       </c>
     </row>
     <row r="44">
@@ -4200,27 +4161,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1524227090851669</v>
+        <v>-0.4766568610260354</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8800714820577344</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-0.1526226723217244</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.8797588565624487</v>
+        <v>-0.2919685003067591</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +4181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4262,7 +4209,7 @@
         <v>2021</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1930721024329284</v>
+        <v>0.07555113023228117</v>
       </c>
     </row>
     <row r="3">
@@ -4273,7 +4220,7 @@
         <v>2020</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1757048871659097</v>
+        <v>0.9995715597663212</v>
       </c>
     </row>
     <row r="4">
@@ -4284,7 +4231,7 @@
         <v>2019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1924760390794526</v>
+        <v>1.202119026302922</v>
       </c>
     </row>
     <row r="5">
@@ -4295,7 +4242,7 @@
         <v>2018</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3600864649287054</v>
+        <v>-0.2926216134981086</v>
       </c>
     </row>
     <row r="6">
@@ -4306,7 +4253,7 @@
         <v>2017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15793193351607</v>
+        <v>1.210711635754386</v>
       </c>
     </row>
     <row r="7">
@@ -4314,10 +4261,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008291063809625953</v>
+        <v>-0.8094988492267878</v>
       </c>
     </row>
     <row r="8">
@@ -4325,10 +4272,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1657062662961694</v>
+        <v>1.306929004244824</v>
       </c>
     </row>
     <row r="9">
@@ -4336,10 +4283,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1811679752599622</v>
+        <v>0.05304929547440354</v>
       </c>
     </row>
     <row r="10">
@@ -4347,10 +4294,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3098930132498446</v>
+        <v>0.189480376260642</v>
       </c>
     </row>
     <row r="11">
@@ -4358,10 +4305,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5037816318498012</v>
+        <v>0.06453700811219644</v>
       </c>
     </row>
     <row r="12">
@@ -4369,10 +4316,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1919895641618946</v>
+        <v>1.835273995411823</v>
       </c>
     </row>
     <row r="13">
@@ -4380,10 +4327,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1637265113026657</v>
+        <v>0.03791155659018646</v>
       </c>
     </row>
     <row r="14">
@@ -4391,10 +4338,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1917477216303747</v>
+        <v>0.08784010782671696</v>
       </c>
     </row>
     <row r="15">
@@ -4402,10 +4349,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0194732631527332</v>
+        <v>-0.1494045886018763</v>
       </c>
     </row>
     <row r="16">
@@ -4413,10 +4360,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3790653230546403</v>
+        <v>-0.1065506020997343</v>
       </c>
     </row>
     <row r="17">
@@ -4424,10 +4371,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>0.183085582829109</v>
+        <v>0.06133546152499789</v>
       </c>
     </row>
     <row r="18">
@@ -4435,10 +4382,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3190014751189603</v>
+        <v>0.1619534664731927</v>
       </c>
     </row>
     <row r="19">
@@ -4446,10 +4393,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1918676635314157</v>
+        <v>0.06236059469405215</v>
       </c>
     </row>
     <row r="20">
@@ -4457,10 +4404,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01102271949242282</v>
+        <v>0.3203318753811948</v>
       </c>
     </row>
     <row r="21">
@@ -4468,10 +4415,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1884998390457096</v>
+        <v>0.06820550368049021</v>
       </c>
     </row>
     <row r="22">
@@ -4479,10 +4426,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2889713645263829</v>
+        <v>-0.04734942390654732</v>
       </c>
     </row>
     <row r="23">
@@ -4490,10 +4437,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1748560186259474</v>
+        <v>0.04768022551606658</v>
       </c>
     </row>
     <row r="24">
@@ -4501,10 +4448,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.5498992837314025</v>
+        <v>-1.196085430595468</v>
       </c>
     </row>
     <row r="25">
@@ -4512,10 +4459,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1830311330159922</v>
+        <v>0.08473544635962649</v>
       </c>
     </row>
     <row r="26">
@@ -4523,10 +4470,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.006631516393629438</v>
+        <v>-0.1296458607361658</v>
       </c>
     </row>
     <row r="27">
@@ -4534,10 +4481,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1850609354550642</v>
+        <v>0.05657659525424717</v>
       </c>
     </row>
     <row r="28">
@@ -4545,10 +4492,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.143821146639548</v>
+        <v>-0.4355258945592326</v>
       </c>
     </row>
     <row r="29">
@@ -4556,10 +4503,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1578700851482929</v>
+        <v>0.03292429335503996</v>
       </c>
     </row>
     <row r="30">
@@ -4567,10 +4514,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.5439362094329553</v>
+        <v>-1.400412151499944</v>
       </c>
     </row>
     <row r="31">
@@ -4578,10 +4525,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>0.193069890672659</v>
+        <v>0.06350294548404935</v>
       </c>
     </row>
     <row r="32">
@@ -4589,10 +4536,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.5704211711948354</v>
+        <v>-1.360390024021075</v>
       </c>
     </row>
     <row r="33">
@@ -4600,10 +4547,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1930696694961793</v>
+        <v>0.1295738459506438</v>
       </c>
     </row>
     <row r="34">
@@ -4611,10 +4558,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.5668884239866134</v>
+        <v>-0.8478927276296122</v>
       </c>
     </row>
     <row r="35">
@@ -4622,10 +4569,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1930836034536303</v>
+        <v>0.06458652296178875</v>
       </c>
     </row>
     <row r="36">
@@ -4633,10 +4580,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02779234444000293</v>
+        <v>-0.08189022638292333</v>
       </c>
     </row>
     <row r="37">
@@ -4644,10 +4591,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1930709965538226</v>
+        <v>0.0656725045193374</v>
       </c>
     </row>
     <row r="38">
@@ -4655,10 +4602,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.08665935898729447</v>
+        <v>-0.2955349095111127</v>
       </c>
     </row>
     <row r="39">
@@ -4666,10 +4613,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1930696694961793</v>
+        <v>0.06676087018502982</v>
       </c>
     </row>
     <row r="40">
@@ -4677,10 +4624,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1259621176058677</v>
+        <v>-0.3926631351364284</v>
       </c>
     </row>
     <row r="41">
@@ -4688,10 +4635,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1930696694961793</v>
+        <v>0.06350294548404935</v>
       </c>
     </row>
     <row r="42">
@@ -4699,10 +4646,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.4768651069279188</v>
+        <v>-1.38237792922784</v>
       </c>
     </row>
     <row r="43">
@@ -4710,10 +4657,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1706247075109737</v>
+        <v>0.04404992345024598</v>
       </c>
     </row>
     <row r="44">
@@ -4721,21 +4668,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.5669419407072477</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.1904205707180193</v>
+        <v>-1.384536981358882</v>
       </c>
     </row>
   </sheetData>
@@ -4749,7 +4685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4777,7 +4713,7 @@
         <v>2021</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1930721024329284</v>
+        <v>1.271726638104192</v>
       </c>
     </row>
     <row r="3">
@@ -4788,7 +4724,7 @@
         <v>2020</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1757048871659097</v>
+        <v>-0.07462883695472397</v>
       </c>
     </row>
     <row r="4">
@@ -4799,7 +4735,7 @@
         <v>2019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1924760390794526</v>
+        <v>-1.121871748274468</v>
       </c>
     </row>
     <row r="5">
@@ -4810,7 +4746,7 @@
         <v>2018</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3600864649287054</v>
+        <v>0.4303112447810347</v>
       </c>
     </row>
     <row r="6">
@@ -4821,7 +4757,7 @@
         <v>2017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15793193351607</v>
+        <v>0.1919119012882435</v>
       </c>
     </row>
     <row r="7">
@@ -4829,10 +4765,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008291063809625953</v>
+        <v>0.9398391643143078</v>
       </c>
     </row>
     <row r="8">
@@ -4840,10 +4776,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1657062662961694</v>
+        <v>-0.2562074365022756</v>
       </c>
     </row>
     <row r="9">
@@ -4851,10 +4787,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1811679752599622</v>
+        <v>-0.07651596254971568</v>
       </c>
     </row>
     <row r="10">
@@ -4862,10 +4798,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3098930132498446</v>
+        <v>-1.224593429846678</v>
       </c>
     </row>
     <row r="11">
@@ -4873,10 +4809,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5037816318498012</v>
+        <v>-1.028317254661426</v>
       </c>
     </row>
     <row r="12">
@@ -4884,10 +4820,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1919895641618946</v>
+        <v>-0.713390088535048</v>
       </c>
     </row>
     <row r="13">
@@ -4895,10 +4831,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1637265113026657</v>
+        <v>0.07801502963894968</v>
       </c>
     </row>
     <row r="14">
@@ -4906,10 +4842,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1917477216303747</v>
+        <v>0.2175339556445296</v>
       </c>
     </row>
     <row r="15">
@@ -4917,10 +4853,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0194732631527332</v>
+        <v>-0.08316306628497283</v>
       </c>
     </row>
     <row r="16">
@@ -4928,10 +4864,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3790653230546403</v>
+        <v>-0.8045117490414536</v>
       </c>
     </row>
     <row r="17">
@@ -4939,10 +4875,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>0.183085582829109</v>
+        <v>1.336654144051305</v>
       </c>
     </row>
     <row r="18">
@@ -4950,10 +4886,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3190014751189603</v>
+        <v>-2.892497641104788</v>
       </c>
     </row>
     <row r="19">
@@ -4961,10 +4897,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1918676635314157</v>
+        <v>1.122393936069369</v>
       </c>
     </row>
     <row r="20">
@@ -4972,10 +4908,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01102271949242282</v>
+        <v>-2.130603968204572</v>
       </c>
     </row>
     <row r="21">
@@ -4983,10 +4919,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1884998390457096</v>
+        <v>0.5722316053657123</v>
       </c>
     </row>
     <row r="22">
@@ -4994,10 +4930,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2889713645263829</v>
+        <v>-0.8381626491300167</v>
       </c>
     </row>
     <row r="23">
@@ -5005,10 +4941,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1748560186259474</v>
+        <v>1.054275772980082</v>
       </c>
     </row>
     <row r="24">
@@ -5016,10 +4952,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.5498992837314025</v>
+        <v>-0.078605002962579</v>
       </c>
     </row>
     <row r="25">
@@ -5027,10 +4963,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1830311330159922</v>
+        <v>-0.1055411308768419</v>
       </c>
     </row>
     <row r="26">
@@ -5038,10 +4974,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.006631516393629438</v>
+        <v>0.07351039421570153</v>
       </c>
     </row>
     <row r="27">
@@ -5049,10 +4985,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1850609354550642</v>
+        <v>0.1510027550258414</v>
       </c>
     </row>
     <row r="28">
@@ -5060,10 +4996,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.143821146639548</v>
+        <v>-0.05346628857844016</v>
       </c>
     </row>
     <row r="29">
@@ -5071,10 +5007,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1578700851482929</v>
+        <v>0.5192910289386895</v>
       </c>
     </row>
     <row r="30">
@@ -5082,10 +5018,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.5439362094329553</v>
+        <v>1.241065183602924</v>
       </c>
     </row>
     <row r="31">
@@ -5093,10 +5029,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>0.193069890672659</v>
+        <v>0.01587236520548307</v>
       </c>
     </row>
     <row r="32">
@@ -5104,10 +5040,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.5704211711948354</v>
+        <v>-0.08348451225509974</v>
       </c>
     </row>
     <row r="33">
@@ -5115,10 +5051,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1930696694961793</v>
+        <v>0.5669356855120771</v>
       </c>
     </row>
     <row r="34">
@@ -5126,10 +5062,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.5668884239866134</v>
+        <v>-0.004714916600263234</v>
       </c>
     </row>
     <row r="35">
@@ -5137,10 +5073,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1930836034536303</v>
+        <v>-0.01310359541166785</v>
       </c>
     </row>
     <row r="36">
@@ -5148,10 +5084,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02779234444000293</v>
+        <v>0.00942419247642886</v>
       </c>
     </row>
     <row r="37">
@@ -5159,10 +5095,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1930709965538226</v>
+        <v>0.4097864060455648</v>
       </c>
     </row>
     <row r="38">
@@ -5170,10 +5106,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.08665935898729447</v>
+        <v>0.00250765023912472</v>
       </c>
     </row>
     <row r="39">
@@ -5181,10 +5117,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1930696694961793</v>
+        <v>0.3139215757086819</v>
       </c>
     </row>
     <row r="40">
@@ -5192,10 +5128,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1259621176058677</v>
+        <v>-0.06192898468186043</v>
       </c>
     </row>
     <row r="41">
@@ -5203,10 +5139,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1930696694961793</v>
+        <v>0.0598811117413461</v>
       </c>
     </row>
     <row r="42">
@@ -5214,10 +5150,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.4768651069279188</v>
+        <v>-0.07054187467173967</v>
       </c>
     </row>
     <row r="43">
@@ -5225,10 +5161,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1706247075109737</v>
+        <v>-0.03986090604101168</v>
       </c>
     </row>
     <row r="44">
@@ -5236,21 +5172,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.5669419407072477</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.1904205707180193</v>
+        <v>-0.08118619086116063</v>
       </c>
     </row>
   </sheetData>
@@ -5264,7 +5189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5292,7 +5217,7 @@
         <v>2021</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5675181207368879</v>
+        <v>-1.139703439008008</v>
       </c>
     </row>
     <row r="3">
@@ -5303,7 +5228,7 @@
         <v>2020</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5059525052447145</v>
+        <v>-4.168705317917222</v>
       </c>
     </row>
     <row r="4">
@@ -5314,7 +5239,7 @@
         <v>2019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.148550819917101</v>
+        <v>-0.02875629102428829</v>
       </c>
     </row>
     <row r="5">
@@ -5325,7 +5250,7 @@
         <v>2018</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5689137793772555</v>
+        <v>-0.2982573350380492</v>
       </c>
     </row>
     <row r="6">
@@ -5336,7 +5261,7 @@
         <v>2017</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5706818924008301</v>
+        <v>-5.792202706801895</v>
       </c>
     </row>
     <row r="7">
@@ -5344,10 +5269,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001233543863819343</v>
+        <v>-0.09213261630744375</v>
       </c>
     </row>
     <row r="8">
@@ -5355,10 +5280,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1594457202897796</v>
+        <v>-0.2180425526712583</v>
       </c>
     </row>
     <row r="9">
@@ -5366,10 +5291,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2081665792664975</v>
+        <v>1.721617492596933</v>
       </c>
     </row>
     <row r="10">
@@ -5377,10 +5302,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1098385023573465</v>
+        <v>-0.1600622632967794</v>
       </c>
     </row>
     <row r="11">
@@ -5388,10 +5313,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2201032742387797</v>
+        <v>-0.07138662809810054</v>
       </c>
     </row>
     <row r="12">
@@ -5399,10 +5324,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0335973993635429</v>
+        <v>-0.2523174681455816</v>
       </c>
     </row>
     <row r="13">
@@ -5410,10 +5335,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0379415876894631</v>
+        <v>0.7425971015069575</v>
       </c>
     </row>
     <row r="14">
@@ -5421,10 +5346,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0654546218475477</v>
+        <v>-0.0263795114104227</v>
       </c>
     </row>
     <row r="15">
@@ -5432,10 +5357,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2095471735785485</v>
+        <v>-0.07572129145919014</v>
       </c>
     </row>
     <row r="16">
@@ -5443,10 +5368,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2252630974243552</v>
+        <v>-0.0705927231319223</v>
       </c>
     </row>
     <row r="17">
@@ -5454,10 +5379,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5603682269624803</v>
+        <v>-5.625916067490397</v>
       </c>
     </row>
     <row r="18">
@@ -5465,10 +5390,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2265359012166869</v>
+        <v>-0.06894206740544732</v>
       </c>
     </row>
     <row r="19">
@@ -5476,10 +5401,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5214057631804959</v>
+        <v>-3.08974131365015</v>
       </c>
     </row>
     <row r="20">
@@ -5487,10 +5412,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2067064458806096</v>
+        <v>-0.08677718706245159</v>
       </c>
     </row>
     <row r="21">
@@ -5498,10 +5423,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3078439708357711</v>
+        <v>-1.205909590626122</v>
       </c>
     </row>
     <row r="22">
@@ -5509,10 +5434,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2265618806053313</v>
+        <v>-0.06191439977341185</v>
       </c>
     </row>
     <row r="23">
@@ -5520,10 +5445,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2880111219879339</v>
+        <v>0.1719810674096854</v>
       </c>
     </row>
     <row r="24">
@@ -5531,10 +5456,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2069414555340569</v>
+        <v>2.627760384906326</v>
       </c>
     </row>
     <row r="25">
@@ -5542,10 +5467,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>0.206916588772631</v>
+        <v>1.618401899865557</v>
       </c>
     </row>
     <row r="26">
@@ -5553,10 +5478,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04249886638438086</v>
+        <v>0.7363577704012036</v>
       </c>
     </row>
     <row r="27">
@@ -5564,10 +5489,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.01814360818451921</v>
+        <v>0.08592926448524675</v>
       </c>
     </row>
     <row r="28">
@@ -5575,10 +5500,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1765431501567273</v>
+        <v>0.6914884510267696</v>
       </c>
     </row>
     <row r="29">
@@ -5586,10 +5511,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.167629448792989</v>
+        <v>-0.05811054749856967</v>
       </c>
     </row>
     <row r="30">
@@ -5597,10 +5522,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.3607725447168091</v>
+        <v>0.1174770223037144</v>
       </c>
     </row>
     <row r="31">
@@ -5608,10 +5533,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1031707414968757</v>
+        <v>0.1776866499823686</v>
       </c>
     </row>
     <row r="32">
@@ -5619,10 +5544,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2162815807504156</v>
+        <v>0.6555571392473355</v>
       </c>
     </row>
     <row r="33">
@@ -5630,10 +5555,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.2693249847945776</v>
+        <v>0.169796566072879</v>
       </c>
     </row>
     <row r="34">
@@ -5641,10 +5566,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>0.05163135657617336</v>
+        <v>0.05339306608498764</v>
       </c>
     </row>
     <row r="35">
@@ -5652,10 +5577,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>0.134157245815804</v>
+        <v>1.07941658100922</v>
       </c>
     </row>
     <row r="36">
@@ -5663,10 +5588,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1031175850123672</v>
+        <v>0.8890010338997492</v>
       </c>
     </row>
     <row r="37">
@@ -5674,10 +5599,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1333005549731155</v>
+        <v>0.2149640949649428</v>
       </c>
     </row>
     <row r="38">
@@ -5685,10 +5610,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1179433166934701</v>
+        <v>0.7616970946280168</v>
       </c>
     </row>
     <row r="39">
@@ -5696,10 +5621,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.09808194059975626</v>
+        <v>0.3281205811206334</v>
       </c>
     </row>
     <row r="40">
@@ -5707,10 +5632,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>0.191446527773955</v>
+        <v>1.272674579388993</v>
       </c>
     </row>
     <row r="41">
@@ -5718,10 +5643,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>0.05623414446360751</v>
+        <v>0.7347204322190836</v>
       </c>
     </row>
     <row r="42">
@@ -5729,10 +5654,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2013260952497231</v>
+        <v>0.9900479908019267</v>
       </c>
     </row>
     <row r="43">
@@ -5740,10 +5665,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1658853967416986</v>
+        <v>-0.04274978866826682</v>
       </c>
     </row>
     <row r="44">
@@ -5751,21 +5676,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2135229061202712</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.05000660354295369</v>
+        <v>0.2140003870614607</v>
       </c>
     </row>
   </sheetData>
@@ -5779,7 +5693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5804,10 +5718,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02618580934165172</v>
+        <v>1.056258847442506</v>
       </c>
     </row>
     <row r="3">
@@ -5815,10 +5729,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001180235675792254</v>
+        <v>4.178852934907343</v>
       </c>
     </row>
     <row r="4">
@@ -5826,10 +5740,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001463303221531636</v>
+        <v>-0.04048779999516323</v>
       </c>
     </row>
     <row r="5">
@@ -5837,10 +5751,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.317558555572024e-05</v>
+        <v>0.2416184733721639</v>
       </c>
     </row>
     <row r="6">
@@ -5848,10 +5762,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002320828170640618</v>
+        <v>0.06862923746432736</v>
       </c>
     </row>
     <row r="7">
@@ -5859,10 +5773,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.02618961016368943</v>
+        <v>-3.047394781233948</v>
       </c>
     </row>
     <row r="8">
@@ -5870,10 +5784,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0001113669144175264</v>
+        <v>-0.2089442418593765</v>
       </c>
     </row>
     <row r="9">
@@ -5881,10 +5795,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.662099264334437e-05</v>
+        <v>-1.790833332194008</v>
       </c>
     </row>
     <row r="10">
@@ -5892,10 +5806,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0001907182948023388</v>
+        <v>0.1970292274762352</v>
       </c>
     </row>
     <row r="11">
@@ -5903,10 +5817,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>5.215806627885269e-05</v>
+        <v>4.886475298412702</v>
       </c>
     </row>
     <row r="12">
@@ -5914,10 +5828,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001411222960367719</v>
+        <v>2.395639819309781</v>
       </c>
     </row>
     <row r="13">
@@ -5925,10 +5839,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001230584449050372</v>
+        <v>-1.257802984778522</v>
       </c>
     </row>
     <row r="14">
@@ -5936,10 +5850,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0001507230392313348</v>
+        <v>0.1774931047630908</v>
       </c>
     </row>
     <row r="15">
@@ -5947,10 +5861,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>3.042572738570421e-05</v>
+        <v>1.009980264062336</v>
       </c>
     </row>
     <row r="16">
@@ -5958,10 +5872,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>9.852281828076951e-05</v>
+        <v>0.07035096064426201</v>
       </c>
     </row>
     <row r="17">
@@ -5969,10 +5883,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>3.119177984157154e-05</v>
+        <v>1.525618406298456</v>
       </c>
     </row>
     <row r="18">
@@ -5980,10 +5894,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0002719675791422351</v>
+        <v>0.1132935093243462</v>
       </c>
     </row>
     <row r="19">
@@ -5991,10 +5905,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>4.0673187329514e-05</v>
+        <v>4.246558935726287</v>
       </c>
     </row>
     <row r="20">
@@ -6002,10 +5916,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001495497507625853</v>
+        <v>0.07859480594420473</v>
       </c>
     </row>
     <row r="21">
@@ -6013,10 +5927,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>3.334704957070485e-05</v>
+        <v>1.583944423820156</v>
       </c>
     </row>
     <row r="22">
@@ -6024,10 +5938,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>9.347124679560376e-05</v>
+        <v>0.07227214426225839</v>
       </c>
     </row>
     <row r="23">
@@ -6035,10 +5949,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>2.989649771524981e-05</v>
+        <v>-0.3084195518088742</v>
       </c>
     </row>
     <row r="24">
@@ -6046,10 +5960,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.156108006426848e-05</v>
+        <v>-2.220889013213297</v>
       </c>
     </row>
     <row r="25">
@@ -6057,10 +5971,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0001048993245459505</v>
+        <v>-0.2330109949744946</v>
       </c>
     </row>
     <row r="26">
@@ -6068,10 +5982,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.146508094664978e-05</v>
+        <v>-2.612244832851</v>
       </c>
     </row>
     <row r="27">
@@ -6079,10 +5993,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0001011795662009161</v>
+        <v>-0.02093178055000641</v>
       </c>
     </row>
     <row r="28">
@@ -6090,10 +6004,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>-6.167357806630576e-06</v>
+        <v>-0.6664218680819104</v>
       </c>
     </row>
     <row r="29">
@@ -6101,10 +6015,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>-5.756464876559916e-05</v>
+        <v>0.02178709255788806</v>
       </c>
     </row>
     <row r="30">
@@ -6112,10 +6026,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>7.609584430663468e-06</v>
+        <v>-2.105951454564879</v>
       </c>
     </row>
     <row r="31">
@@ -6123,10 +6037,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0001146444340617693</v>
+        <v>-0.2495374283665431</v>
       </c>
     </row>
     <row r="32">
@@ -6134,10 +6048,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.991311341904374e-05</v>
+        <v>-0.485973861489542</v>
       </c>
     </row>
     <row r="33">
@@ -6145,10 +6059,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>-4.665182940460765e-05</v>
+        <v>-0.1129381054913817</v>
       </c>
     </row>
     <row r="34">
@@ -6156,10 +6070,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.684714604088023e-05</v>
+        <v>-0.1591784658798489</v>
       </c>
     </row>
     <row r="35">
@@ -6167,10 +6081,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>-2.713714643758266e-05</v>
+        <v>-0.06331255285916164</v>
       </c>
     </row>
     <row r="36">
@@ -6178,10 +6092,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.463125497860934e-05</v>
+        <v>-0.9365418753419897</v>
       </c>
     </row>
     <row r="37">
@@ -6189,10 +6103,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>-5.985294747812564e-05</v>
+        <v>-0.1757668062572245</v>
       </c>
     </row>
     <row r="38">
@@ -6200,10 +6114,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>-4.044405318218474e-05</v>
+        <v>-0.9437420223977659</v>
       </c>
     </row>
     <row r="39">
@@ -6211,10 +6125,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>-7.307330083469953e-05</v>
+        <v>-0.3787556766133258</v>
       </c>
     </row>
     <row r="40">
@@ -6222,10 +6136,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0001040934497835147</v>
+        <v>-1.290496615806182</v>
       </c>
     </row>
     <row r="41">
@@ -6233,10 +6147,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.7515587416046e-05</v>
+        <v>0.06174029937121487</v>
       </c>
     </row>
     <row r="42">
@@ -6244,10 +6158,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C42" t="n">
-        <v>9.323108449826002e-06</v>
+        <v>-0.9683084168343289</v>
       </c>
     </row>
     <row r="43">
@@ -6255,10 +6169,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C43" t="n">
-        <v>-6.876104699882751e-05</v>
+        <v>0.6769084143944445</v>
       </c>
     </row>
     <row r="44">
@@ -6266,21 +6180,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C44" t="n">
-        <v>6.892622683973705e-05</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-1.708358718949819e-05</v>
+        <v>-0.09840266283709667</v>
       </c>
     </row>
   </sheetData>
